--- a/log.xlsx
+++ b/log.xlsx
@@ -427,25 +427,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>[16:38:52]</v>
+        <v>[18:30:39]</v>
       </c>
       <c r="B2" t="str">
-        <v>Свойство отрезков касательной и секущей</v>
+        <v>Свойство и признаки ромба</v>
       </c>
       <c r="C2" t="str">
         <v>answer</v>
       </c>
       <c r="D2" t="str">
-        <v>answer</v>
+        <v>asdf</v>
       </c>
       <c r="E2">
-        <v>1797612323</v>
+        <v>1381120546</v>
       </c>
       <c r="F2" t="str">
-        <v>aбба</v>
+        <v>новая команда (2)</v>
       </c>
       <c r="G2">
-        <v>300</v>
+        <v>-300</v>
       </c>
     </row>
   </sheetData>
